--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>615793.4470980654</v>
+        <v>613905.8655816636</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326881.1881875898</v>
+        <v>840479.5802606111</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>297.7210618174577</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.8878257166867</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>55.66811582074952</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>8.787420751036564</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>341.8798153304958</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>142.984589456748</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.7175086016397</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2174501039857</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>104.8405888295618</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>160.1036732006758</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>96.45266989055055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>88.66218518272609</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>15.79632478932024</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>222.0053034587781</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>101.9276424593649</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>146.8649459172503</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125.1371612091586</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>17.11446387459763</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>58.10787979179661</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>237.396509186925</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>70.92355888951703</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>115.8731874004437</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>179.8970986599035</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.8765232158146</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4150,7 +4150,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1450.540220654586</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1081.577703714174</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1081.577703714174</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>695.78945111593</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2651.807852920559</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2651.807852920559</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.173185892622</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2433.173185892622</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2102.110298549051</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1837.140060718708</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,16 +4410,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.81916439716906</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C4" t="n">
-        <v>62.81916439716906</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>62.81916439716906</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>62.81916439716906</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>62.81916439716906</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.81916439716906</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1322.340737411353</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="C5" t="n">
-        <v>1322.340737411353</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1322.340737411353</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>936.5524848131085</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>525.566580023501</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1322.340737411353</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y5" t="n">
-        <v>1322.340737411353</v>
+        <v>2125.745768720171</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.388532134052</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>340.388532134052</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>340.388532134052</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>340.388532134052</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>340.388532134052</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>340.388532134052</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.412473230863</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>1859.412473230863</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1501.146774624113</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.412473230863</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y8" t="n">
-        <v>1859.412473230863</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,19 +4887,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="U10" t="n">
-        <v>689.9086980046678</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="V10" t="n">
-        <v>689.9086980046678</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W10" t="n">
-        <v>689.9086980046678</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X10" t="n">
-        <v>689.9086980046678</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.9086980046678</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1552.546540725493</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N12" t="n">
-        <v>1897.067196363111</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.7324460062429</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C13" t="n">
-        <v>510.7324460062429</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228585</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1409.358507747068</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1409.358507747068</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364826</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="Y13" t="n">
-        <v>692.3809108364826</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.438612565609</v>
+        <v>1719.061395177695</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.782055165496</v>
+        <v>2048.924022841727</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.0926555785011</v>
+        <v>506.7814158330675</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0926555785011</v>
+        <v>506.7814158330675</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9760161661653</v>
+        <v>356.6647764207318</v>
       </c>
       <c r="E16" t="n">
-        <v>260.0629225837722</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>113.1729750858618</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>113.1729750858618</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>113.1729750858618</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>1050.883074075915</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765184</v>
+        <v>796.1985858700281</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765184</v>
+        <v>506.7814158330675</v>
       </c>
       <c r="X16" t="n">
-        <v>558.0926555785011</v>
+        <v>506.7814158330675</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.0926555785011</v>
+        <v>506.7814158330675</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>493.0519035688097</v>
       </c>
       <c r="M18" t="n">
-        <v>772.8730769161741</v>
+        <v>1261.420049961271</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.284655180325</v>
+        <v>2065.831628225422</v>
       </c>
       <c r="O18" t="n">
-        <v>1826.038069264287</v>
+        <v>2345.371693444119</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2550.394174226329</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>834.5937666237581</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C19" t="n">
-        <v>665.6575836958513</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>665.6575836958513</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>665.6575836958513</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>518.7676361979409</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>350.5923145177615</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>200.1743060657049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.242231453998</v>
+        <v>726.2901516528284</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.242231453998</v>
+        <v>726.2901516528284</v>
       </c>
     </row>
     <row r="20">
@@ -5753,13 +5753,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5835,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.726987855212</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1569.24764349283</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2238.711404795489</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376.1556594977425</v>
+        <v>503.3281774570619</v>
       </c>
       <c r="C22" t="n">
-        <v>376.1556594977425</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D22" t="n">
-        <v>226.0390200854067</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E22" t="n">
-        <v>226.0390200854067</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F22" t="n">
-        <v>226.0390200854068</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G22" t="n">
-        <v>226.0390200854068</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752259996</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="X22" t="n">
-        <v>557.8041243279822</v>
+        <v>503.3281774570619</v>
       </c>
       <c r="Y22" t="n">
-        <v>557.8041243279822</v>
+        <v>503.3281774570619</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181233</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L24" t="n">
-        <v>836.471721275012</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M24" t="n">
-        <v>1604.839867667473</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N24" t="n">
-        <v>2374.820091292176</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>583.2726413366775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>414.3364584087706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>414.3364584087706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>985.7136853104473</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>985.7136853104473</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>764.9211061669172</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6306,16 +6306,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M27" t="n">
-        <v>2030.299435654558</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N27" t="n">
-        <v>2374.820091292176</v>
+        <v>2450.215088026149</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.4801130615103</v>
+        <v>677.999939105308</v>
       </c>
       <c r="C28" t="n">
-        <v>785.4801130615103</v>
+        <v>509.0637561774012</v>
       </c>
       <c r="D28" t="n">
-        <v>635.3634736491747</v>
+        <v>509.0637561774012</v>
       </c>
       <c r="E28" t="n">
-        <v>487.4503800667816</v>
+        <v>361.150662595008</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>214.2607150970977</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6415,19 +6415,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="Y28" t="n">
-        <v>967.1285778917501</v>
+        <v>677.999939105308</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171745</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1031.449480746876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508391</v>
+        <v>491.557554709495</v>
       </c>
       <c r="C31" t="n">
-        <v>543.042358604303</v>
+        <v>378.3822370629589</v>
       </c>
       <c r="D31" t="n">
-        <v>448.686584473338</v>
+        <v>284.026462931994</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723157</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557762</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1386.91388909646</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.990266171944</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>954.3339614163546</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="X31" t="n">
-        <v>782.105275799708</v>
+        <v>730.4517433652474</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.105275799708</v>
+        <v>617.4451542583639</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527472</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,19 +7093,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7342,7 +7342,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,46 +7400,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,19 +7822,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>124.662252205741</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9726,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>317.7057569191812</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>52.1628031276618</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>132.8853758756632</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>94.62292067495176</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>64.23204893979924</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>8.491603004907107</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>78.8447094717869</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>42.1096598894692</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.7993644929385</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>88.32608285477257</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>48.8408432116523</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>74.49748913341422</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>50.62038106293384</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,7 +24655,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.13699711011698</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>51.5048735077231</v>
       </c>
     </row>
     <row r="32">
@@ -26317,7 +26317,7 @@
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
         <v>332374.7007770523</v>
@@ -26344,16 +26344,16 @@
         <v>348942.7521923203</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923203</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284568</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,37 +26424,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759307</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758825</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758822</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758888</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.793690575863</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758822</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477241</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.5809318964</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462943.3442662526</v>
+        <v>-462943.3442662524</v>
       </c>
       <c r="C6" t="n">
         <v>127024.534948292</v>
       </c>
       <c r="D6" t="n">
-        <v>127024.5349482921</v>
+        <v>127024.534948292</v>
       </c>
       <c r="E6" t="n">
-        <v>-285560.4553391363</v>
+        <v>-285657.9144651085</v>
       </c>
       <c r="F6" t="n">
-        <v>239599.5811377599</v>
+        <v>239502.1220117877</v>
       </c>
       <c r="G6" t="n">
-        <v>239599.5811377598</v>
+        <v>239502.1220117877</v>
       </c>
       <c r="H6" t="n">
-        <v>239599.5811377598</v>
+        <v>239502.1220117877</v>
       </c>
       <c r="I6" t="n">
-        <v>239599.5811377599</v>
+        <v>239502.1220117878</v>
       </c>
       <c r="J6" t="n">
-        <v>63176.36194516694</v>
+        <v>63078.9028191947</v>
       </c>
       <c r="K6" t="n">
-        <v>186055.5867056389</v>
+        <v>186037.0929677045</v>
       </c>
       <c r="L6" t="n">
         <v>217678.1586395317</v>
       </c>
       <c r="M6" t="n">
-        <v>93220.05020656127</v>
+        <v>93220.0502065614</v>
       </c>
       <c r="N6" t="n">
-        <v>228021.0654403988</v>
+        <v>228021.0654403986</v>
       </c>
       <c r="O6" t="n">
         <v>228021.0654403986</v>
       </c>
       <c r="P6" t="n">
-        <v>183858.4601375529</v>
+        <v>183858.4601375528</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26768,13 +26768,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>109.1549839242538</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>9.590576858124997</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>111.5787052778783</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>158.5223815080143</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>23.39307644051178</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>270.799580564047</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>170.0415395682877</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>80.42013472218827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>245.7129199682761</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>244.4003798878512</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>52.04186574934306</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>248.443790902229</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31601,13 +31601,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31838,25 +31838,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>399.7368686068476</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>446.4811309968916</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -32002,7 +32002,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
@@ -32075,28 +32075,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>274.5684716790593</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32312,28 +32312,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>323.0126678614004</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>213.9002903989604</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32555,19 +32555,19 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>204.2612353205031</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32707,7 +32707,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32798,13 +32798,13 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>429.7571393808937</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>210.8242018125564</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32947,7 +32947,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
@@ -33026,16 +33026,16 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>425.8974584957645</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33260,25 +33260,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>58.42321813458335</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33442,7 +33442,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33497,25 +33497,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>32.39888063626375</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4309478731435</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,13 +33977,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>212.6272478467034</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304448</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,34 +34202,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>380.4309478731437</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>723.3078984348292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>794.4817932571118</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35650,7 +35650,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>435.0866292562072</v>
       </c>
       <c r="N15" t="n">
-        <v>622.5691339392795</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>507.5010290870073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>73.91851631293891</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>388.7495965461101</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
@@ -36446,13 +36446,13 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>777.7578016411139</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>462.0902766448415</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36674,19 +36674,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>749.4684883237461</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>406.4238803948036</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>216.8872418618707</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>728.4316101333637</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>536.198277674685</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352442</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710908</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>728.431610133364</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,16 +37944,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
